--- a/database/labelling.xlsx
+++ b/database/labelling.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sciquest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjd970707/Documents/workspace/SciquestServer/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF28E8F-8BA7-42AB-86BF-7D40E4939CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B484F51-FD45-CE4A-8CB9-DB79DACF570F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{5829D4D4-9BE8-4DA1-829B-E425311BF909}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23300" windowHeight="12620" xr2:uid="{5829D4D4-9BE8-4DA1-829B-E425311BF909}"/>
   </bookViews>
   <sheets>
     <sheet name="Labelling" sheetId="1" r:id="rId1"/>
     <sheet name="Major Labels" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Labelling!$A$3:$K$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Labelling!$A$2:$K$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="172">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,14 +269,6 @@
   </si>
   <si>
     <t>Nonlinear Optics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Article Related Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Labelling Items</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -688,14 +680,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -717,7 +709,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -748,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,9 +762,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -781,8 +770,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -798,8 +787,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{311FF998-5C0F-4F73-9B5B-7BA24D6E0171}" name="表1" displayName="表1" ref="A2:L26" totalsRowShown="0">
-  <autoFilter ref="A2:L26" xr:uid="{77C3E2AA-CCCC-419C-9248-25404633A8A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{311FF998-5C0F-4F73-9B5B-7BA24D6E0171}" name="表1" displayName="表1" ref="A1:L25" totalsRowShown="0">
+  <autoFilter ref="A1:L25" xr:uid="{77C3E2AA-CCCC-419C-9248-25404633A8A6}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{CB4C27EF-5EC8-419F-9D91-1CDE41870A5D}" name="Article Title"/>
     <tableColumn id="2" xr3:uid="{C26BC633-F628-488A-AE4A-EFB952BFB2DD}" name="URL"/>
@@ -819,7 +808,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1118,88 +1107,104 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44113</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6">
         <v>44113</v>
@@ -1208,180 +1213,182 @@
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
+    <row r="4" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>31</v>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>45</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D6" s="6">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>53</v>
+      <c r="I6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>56</v>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>64</v>
+    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" s="6">
         <v>44109</v>
@@ -1390,34 +1397,32 @@
         <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>72</v>
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D9" s="6">
         <v>44109</v>
@@ -1426,66 +1431,66 @@
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>78</v>
+    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D10" s="6">
-        <v>44109</v>
+        <v>44105</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>82</v>
+      <c r="F10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>84</v>
+    <row r="11" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6">
         <v>44105</v>
@@ -1494,32 +1499,36 @@
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D12" s="6">
         <v>44105</v>
@@ -1527,49 +1536,49 @@
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>93</v>
+      <c r="F12" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="8">
         <v>44105</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>101</v>
+      <c r="F13" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>50</v>
@@ -1578,71 +1587,71 @@
         <v>51</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="9">
-        <v>44105</v>
+        <v>113</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44104</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>110</v>
+      <c r="F14" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D15" s="6">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>116</v>
+      <c r="F15" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>50</v>
@@ -1651,24 +1660,24 @@
         <v>51</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>121</v>
+      <c r="K15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D16" s="6">
         <v>44102</v>
@@ -1676,75 +1685,75 @@
       <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>122</v>
+      <c r="F16" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>50</v>
+        <v>128</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D17" s="6">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>129</v>
+      <c r="F17" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D18" s="6">
         <v>44101</v>
@@ -1752,37 +1761,34 @@
       <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>136</v>
+      <c r="F18" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D19" s="6">
         <v>44101</v>
@@ -1790,192 +1796,154 @@
       <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>146</v>
+      <c r="F19" t="s">
+        <v>151</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>148</v>
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>150</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D20" s="6">
-        <v>44101</v>
+        <v>44098</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" t="s">
-        <v>155</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>156</v>
+        <v>67</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D21" s="6">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
-        <v>159</v>
+      <c r="F21" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>161</v>
+        <v>33</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D22" s="6">
-        <v>44097</v>
+        <v>44113</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="6">
-        <v>44113</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
+    </row>
+    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:L1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{4A254EEC-0372-4F7C-B94D-4C40218F3BC5}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{64CAA6C7-E34B-4017-9A2A-ED66E052E162}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{2AA5592B-BB79-482D-9065-CCB19E61D88A}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{C8142C33-9735-4CCC-BBC8-A7FD44EDE124}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{F9CF4D27-ABEE-4BB4-AC80-FE1BA9207939}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{77144C50-CE21-4C27-9A51-C3A2E76D28BE}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{900815F5-DB12-49CC-8B49-688D2580FDC3}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{D52AF546-06FD-4C8D-9EB0-238E22E8C090}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{84B548E0-3D97-4316-A65D-CAD604E5B1B9}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{DCA24F67-342D-4A00-9CD7-DC0C1F6E2CF3}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{5B2FD973-F1F2-4078-A299-10FFB0B4DB63}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{A47139C5-7AC0-4AC2-9812-CA9C028F60C1}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{03521ADE-904F-48A9-AF34-284CAE734955}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{0DB193CF-B80A-429D-ADDB-ABDBBC2700ED}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{208468A1-5F22-4FDE-9FE3-B0C0355865F2}"/>
-    <hyperlink ref="C18" r:id="rId16" xr:uid="{92424057-0FCA-41A8-B638-5A18BC75A63C}"/>
-    <hyperlink ref="C19" r:id="rId17" xr:uid="{7E4ADB80-B4BB-4E4B-B821-BCC00F97EFB3}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{05053028-D85D-4DD2-ABAC-05E781BFF88E}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{F444931A-9600-4C7F-AEDE-78F95F16C600}"/>
-    <hyperlink ref="C22" r:id="rId20" xr:uid="{69D0B5BD-88BE-4A51-95AF-15CD67BF14E8}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4A254EEC-0372-4F7C-B94D-4C40218F3BC5}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{64CAA6C7-E34B-4017-9A2A-ED66E052E162}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2AA5592B-BB79-482D-9065-CCB19E61D88A}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{C8142C33-9735-4CCC-BBC8-A7FD44EDE124}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{F9CF4D27-ABEE-4BB4-AC80-FE1BA9207939}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{77144C50-CE21-4C27-9A51-C3A2E76D28BE}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{900815F5-DB12-49CC-8B49-688D2580FDC3}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{D52AF546-06FD-4C8D-9EB0-238E22E8C090}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{84B548E0-3D97-4316-A65D-CAD604E5B1B9}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{DCA24F67-342D-4A00-9CD7-DC0C1F6E2CF3}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{5B2FD973-F1F2-4078-A299-10FFB0B4DB63}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{A47139C5-7AC0-4AC2-9812-CA9C028F60C1}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{03521ADE-904F-48A9-AF34-284CAE734955}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{0DB193CF-B80A-429D-ADDB-ABDBBC2700ED}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{208468A1-5F22-4FDE-9FE3-B0C0355865F2}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{92424057-0FCA-41A8-B638-5A18BC75A63C}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{7E4ADB80-B4BB-4E4B-B821-BCC00F97EFB3}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{05053028-D85D-4DD2-ABAC-05E781BFF88E}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{F444931A-9600-4C7F-AEDE-78F95F16C600}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{69D0B5BD-88BE-4A51-95AF-15CD67BF14E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
@@ -1989,7 +1957,7 @@
           <x14:formula1>
             <xm:f>'Major Labels'!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H26</xm:sqref>
+          <xm:sqref>H2:H25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2005,37 +1973,37 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
